--- a/tabela_nfe.xlsx
+++ b/tabela_nfe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,47 +451,641 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>produtos</t>
+          <t>produto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>total_item</t>
+          <t>quantidade</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>valor_unitario</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>valor_total_item</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>valor_total_nfe</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_pago</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Maçã Gala - 1kg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Banana Prata - 1kg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Laranja Pera - 1kg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Batata Inglesa - 1kg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cebola - 1kg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tomate - 1kg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Alface - unidade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cenoura - 1kg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Abacaxi - unidade</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Melancia - 1kg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Pepino - 1kg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NFe12345678901234567890123456789012345678901234</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hortifruti Modelo LTDA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cliente Fictício Comércio</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pimentão - 1kg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>NFe35251199999999999999550010000000011000000010</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>EMPRESA MODELO LTDA</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>CONSUMIDOR MODELO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>PRODUTO EXEMPLO 1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.0000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
